--- a/ResultData.xlsx
+++ b/ResultData.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bidne\Documents\College Junior Year\CS330\Final Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B108893A-26EE-4B43-B56B-AB22D5D8FA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16874" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="13">
   <si>
     <t>type</t>
   </si>
@@ -44,11 +58,23 @@
   <si>
     <t>linearRegression</t>
   </si>
+  <si>
+    <t>conscienciousness</t>
+  </si>
+  <si>
+    <t>extraversion</t>
+  </si>
+  <si>
+    <t>neuroticism</t>
+  </si>
+  <si>
+    <t>openness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -93,6 +119,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -141,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -174,9 +203,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,6 +255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,20 +447,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -426,7 +489,7 @@
         <v>0.23945783132530121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -437,11 +500,11 @@
         <v>151</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D41" si="0">C3/664</f>
+        <f t="shared" ref="D3:D73" si="0">C3/664</f>
         <v>0.22740963855421686</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -456,7 +519,7 @@
         <v>0.23343373493975902</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -471,7 +534,7 @@
         <v>0.23644578313253012</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -486,7 +549,7 @@
         <v>0.22740963855421686</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -501,7 +564,7 @@
         <v>0.23644578313253012</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -516,7 +579,7 @@
         <v>0.22740963855421686</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -531,7 +594,7 @@
         <v>0.22740963855421686</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -546,7 +609,7 @@
         <v>0.22740963855421686</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -561,7 +624,7 @@
         <v>0.23644578313253012</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -576,7 +639,7 @@
         <v>0.23795180722891565</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -591,7 +654,7 @@
         <v>0.23192771084337349</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -606,7 +669,7 @@
         <v>0.24096385542168675</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -621,7 +684,7 @@
         <v>0.23343373493975902</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -636,7 +699,7 @@
         <v>0.23192771084337349</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -651,7 +714,7 @@
         <v>0.23343373493975902</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -666,7 +729,7 @@
         <v>0.23795180722891565</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -681,7 +744,7 @@
         <v>0.23644578313253012</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -696,7 +759,7 @@
         <v>0.23042168674698796</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -711,7 +774,7 @@
         <v>0.23644578313253012</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -726,7 +789,7 @@
         <v>0.22740963855421686</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -741,7 +804,7 @@
         <v>0.23343373493975902</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -756,7 +819,7 @@
         <v>0.23493975903614459</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -771,7 +834,7 @@
         <v>0.23343373493975902</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -786,7 +849,7 @@
         <v>0.24096385542168675</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -801,7 +864,7 @@
         <v>0.23343373493975902</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -816,7 +879,7 @@
         <v>0.23945783132530121</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -831,7 +894,7 @@
         <v>0.23795180722891565</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -846,7 +909,7 @@
         <v>0.23644578313253012</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -861,7 +924,7 @@
         <v>0.23945783132530121</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -876,7 +939,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -891,7 +954,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -906,7 +969,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -921,7 +984,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -936,7 +999,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -951,7 +1014,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -966,7 +1029,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -981,7 +1044,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1059,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1008,6 +1071,2406 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>158</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>159</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>161</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24246987951807228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>154</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>157</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23644578313253012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>151</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22740963855421686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>156</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>158</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>157</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23644578313253012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>154</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>154</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>157</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23644578313253012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>158</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>155</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>155</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>157</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23644578313253012</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>153</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>153</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>161</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.24246987951807228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>153</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>150</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22590361445783133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>153</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>159</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>152</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2289156626506024</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>150</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22590361445783133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>155</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>153</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>154</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>150</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22590361445783133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>166</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>166</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>166</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" ref="D74:D137" si="1">C74/664</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>166</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>166</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <v>166</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
+        <v>166</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>166</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
+        <v>166</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>166</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>150</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22590361445783133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>156</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>159</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>159</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>154</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>159</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>156</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>156</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>156</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>151</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22740963855421686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>155</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>156</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>160</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24096385542168675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>156</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>160</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24096385542168675</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>163</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24548192771084337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>154</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22590361445783133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>155</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>155</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>153</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>155</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>158</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>156</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>154</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>155</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>157</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23644578313253012</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>151</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22740963855421686</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>154</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>155</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>166</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>166</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>166</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>166</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>166</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>166</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>166</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119">
+        <v>166</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>166</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>166</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>159</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>151</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22740963855421686</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124">
+        <v>159</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125">
+        <v>158</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>160</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24096385542168675</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127">
+        <v>156</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128">
+        <v>155</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129">
+        <v>155</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <v>152</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" si="1"/>
+        <v>0.2289156626506024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131">
+        <v>159</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132">
+        <v>158</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133">
+        <v>163</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24548192771084337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>162</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24397590361445784</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135">
+        <v>160</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24096385542168675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>162</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24397590361445784</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>162</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24397590361445784</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138">
+        <v>161</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" ref="D138:D201" si="2">C138/664</f>
+        <v>0.24246987951807228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139">
+        <v>160</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24096385542168675</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>159</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141">
+        <v>158</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>156</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143">
+        <v>153</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144">
+        <v>157</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23644578313253012</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145">
+        <v>150</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22590361445783133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>153</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147">
+        <v>155</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23343373493975902</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <v>154</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149">
+        <v>157</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23644578313253012</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>153</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151">
+        <v>147</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2213855421686747</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>166</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153">
+        <v>166</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>166</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <v>166</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156">
+        <v>166</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157">
+        <v>166</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <v>166</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <v>166</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160">
+        <v>166</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161">
+        <v>166</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162">
+        <v>158</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163">
+        <v>158</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164">
+        <v>153</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23042168674698796</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165">
+        <v>161</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24246987951807228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166">
+        <v>152</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2289156626506024</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>158</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168">
+        <v>154</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169">
+        <v>159</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170">
+        <v>157</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23644578313253012</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171">
+        <v>160</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24096385542168675</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172">
+        <v>160</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24096385542168675</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173">
+        <v>158</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>158</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175">
+        <v>156</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176">
+        <v>160</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24096385542168675</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177">
+        <v>154</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178">
+        <v>161</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24246987951807228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179">
+        <v>158</v>
+      </c>
+      <c r="D179" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180">
+        <v>149</v>
+      </c>
+      <c r="D180" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22439759036144577</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181">
+        <v>158</v>
+      </c>
+      <c r="D181" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182">
+        <v>161</v>
+      </c>
+      <c r="D182" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24246987951807228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183">
+        <v>159</v>
+      </c>
+      <c r="D183" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184">
+        <v>154</v>
+      </c>
+      <c r="D184" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23192771084337349</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185">
+        <v>158</v>
+      </c>
+      <c r="D185" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186">
+        <v>159</v>
+      </c>
+      <c r="D186" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>12</v>
+      </c>
+      <c r="C187">
+        <v>156</v>
+      </c>
+      <c r="D187" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23493975903614459</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188">
+        <v>158</v>
+      </c>
+      <c r="D188" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189">
+        <v>159</v>
+      </c>
+      <c r="D189" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23945783132530121</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190">
+        <v>158</v>
+      </c>
+      <c r="D190" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23795180722891565</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>161</v>
+      </c>
+      <c r="D191" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24246987951807228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192">
+        <v>166</v>
+      </c>
+      <c r="D192" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193">
+        <v>166</v>
+      </c>
+      <c r="D193" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194">
+        <v>166</v>
+      </c>
+      <c r="D194" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195">
+        <v>166</v>
+      </c>
+      <c r="D195" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196">
+        <v>166</v>
+      </c>
+      <c r="D196" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197">
+        <v>166</v>
+      </c>
+      <c r="D197" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198">
+        <v>166</v>
+      </c>
+      <c r="D198" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199">
+        <v>166</v>
+      </c>
+      <c r="D199" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200">
+        <v>166</v>
+      </c>
+      <c r="D200" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201">
+        <v>166</v>
+      </c>
+      <c r="D201" s="1">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1018,24 +3481,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
